--- a/case.xlsx
+++ b/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>59c4fe257f1008c12c8b4579</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59c4fe257f1008c12c8b4579</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>58072fb37f1008a8278b4594</t>
+  </si>
+  <si>
+    <t>58072fb37f1008177d8b4596</t>
+  </si>
+  <si>
+    <t>58072fb27f100852168b4598</t>
+  </si>
+  <si>
+    <t>580730007f100865098b45b1</t>
+  </si>
+  <si>
+    <t>580730007f1008937f8b45dc</t>
+  </si>
+  <si>
+    <t>580730007f1008001d8b45ad</t>
+  </si>
+  <si>
+    <t>580730017f10085a3b8b4580</t>
+  </si>
+  <si>
+    <t>580730027f10088d018b45c2</t>
+  </si>
+  <si>
+    <t>580730007f100840438b4595</t>
+  </si>
+  <si>
+    <t>580730017f1008a8278b4599</t>
+  </si>
+  <si>
+    <t>580730007f1008177d8b459b</t>
+  </si>
+  <si>
+    <t>580730017f1008937f8b45de</t>
+  </si>
+  <si>
+    <t>580730007f100843108b45cb</t>
+  </si>
+  <si>
+    <t>580730017f1008707c8b459a</t>
+  </si>
+  <si>
+    <t>580730017f100830158b459d</t>
+  </si>
+  <si>
+    <t>580730027f1008192f8b45ab</t>
+  </si>
+  <si>
+    <t>580730017f1008c7078b45d3</t>
+  </si>
+  <si>
+    <t>580730017f100840438b4597</t>
+  </si>
+  <si>
+    <t>580730017f100865098b45b4</t>
+  </si>
+  <si>
+    <t>580730017f1008207c8b45a2</t>
+  </si>
+  <si>
+    <t>580730017f10081c7c8b45c3</t>
+  </si>
+  <si>
+    <t>580730027f10085a7e8b45c5</t>
+  </si>
+  <si>
+    <t>580730017f100806078b45a7</t>
+  </si>
+  <si>
+    <t>580730017f10087b1a8b459f</t>
+  </si>
+  <si>
+    <t>580734ea7f10088d018b45c6</t>
+  </si>
+  <si>
+    <t>580734eb7f10085a7e8b45cb</t>
+  </si>
+  <si>
+    <t>580734ea7f10086e088b4577</t>
+  </si>
+  <si>
+    <t>580734ea7f10085a7e8b45c9</t>
+  </si>
+  <si>
+    <t>580734eb7f1008713a8b458b</t>
+  </si>
+  <si>
+    <t>580734eb7f1008770e8b45e5</t>
+  </si>
+  <si>
+    <t>580734ec7f100822458b45bf</t>
+  </si>
+  <si>
+    <t>580734eb7f10088d018b45c8</t>
+  </si>
+  <si>
+    <t>580734eb7f10081c7c8b45d6</t>
+  </si>
+  <si>
+    <t>5808a2f17f10086e088b45d4</t>
+  </si>
+  <si>
+    <t>5808a2f17f1008713a8b45c7</t>
+  </si>
+  <si>
+    <t>5a1d2e7e7f100854338b456d</t>
+  </si>
+  <si>
+    <t>580734eb7f100827798b45b6</t>
+  </si>
+  <si>
+    <t>580734eb7f1008e2178b45cc</t>
+  </si>
+  <si>
+    <t>580734eb7f1008e3058b45d1</t>
+  </si>
+  <si>
+    <t>580734eb7f1008c7078b45e6</t>
+  </si>
+  <si>
+    <t>580734eb7f10086e088b4579</t>
+  </si>
+  <si>
+    <t>580734ec7f100852168b45b5</t>
+  </si>
+  <si>
+    <t>580734eb7f10084f218b45b1</t>
+  </si>
+  <si>
+    <t>580734ec7f100822358b45ab</t>
+  </si>
+  <si>
+    <t>580734ec7f1008e3058b45d3</t>
+  </si>
+  <si>
+    <t>5a1d48987f100820618b456e</t>
+  </si>
+  <si>
+    <t>5808a2f17f1008207c8b4631</t>
+  </si>
+  <si>
+    <t>5808a2f17f1008c7078b4644</t>
+  </si>
+  <si>
+    <t>580736d87f1008770e8b45e8</t>
+  </si>
+  <si>
+    <t>580736d87f10085a7e8b45cd</t>
+  </si>
+  <si>
+    <t>580736d87f100852168b45b9</t>
+  </si>
+  <si>
+    <t>580736d87f1008177d8b45c4</t>
+  </si>
+  <si>
+    <t>580736d87f1008c7078b45ea</t>
+  </si>
+  <si>
+    <t>580736d97f100830158b45ab</t>
+  </si>
+  <si>
+    <t>580736d97f100822358b45b1</t>
+  </si>
+  <si>
+    <t>580736d97f1008b57d8b45a5</t>
+  </si>
+  <si>
+    <t>580736d97f1008207c8b45b9</t>
+  </si>
+  <si>
+    <t>5808a74c7f1008192f8b4631</t>
+  </si>
+  <si>
+    <t>5a1d49227f10085e6e8b4571</t>
+  </si>
+  <si>
+    <t>5808a74d7f10086e088b45eb</t>
+  </si>
+  <si>
+    <t>5808ac8a7f1008a93a8b457d</t>
+  </si>
+  <si>
+    <t>5808ac8a7f100822358b462f</t>
+  </si>
+  <si>
+    <t>5808ac8a7f1008207c8b465a</t>
+  </si>
+  <si>
+    <t>5808ac8a7f1008a73a8b4584</t>
+  </si>
+  <si>
+    <t>5808ac8a7f1008001d8b4644</t>
+  </si>
+  <si>
+    <t>5808ac8b7f100806078b4652</t>
   </si>
 </sst>
 </file>
@@ -34,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -74,7 +264,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -355,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,12 +568,322 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
